--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
   <si>
     <t>土地坐落</t>
   </si>
@@ -247,6 +247,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
   </si>
   <si>
     <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>2011-12-19</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1464,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1489,13 +1501,22 @@
       <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1512,13 +1533,22 @@
       <c r="G2" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1535,13 +1565,22 @@
       <c r="G3" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1558,13 +1597,22 @@
       <c r="G4" s="2">
         <v>78460</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1581,13 +1629,22 @@
       <c r="G5" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1603,6 +1660,15 @@
       </c>
       <c r="G6" s="2">
         <v>65600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -1620,16 +1686,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1637,16 +1703,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1654,16 +1720,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1671,16 +1737,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1688,16 +1754,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1705,16 +1771,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1735,19 +1801,19 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1755,22 +1821,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1778,22 +1844,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1801,22 +1867,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
   <si>
     <t>土地坐落</t>
   </si>
@@ -247,6 +247,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
   </si>
   <si>
     <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-19</t>
@@ -1476,13 +1482,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1510,13 +1516,16 @@
       <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1534,21 +1543,24 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1566,21 +1578,24 @@
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1598,21 +1613,24 @@
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1630,21 +1648,24 @@
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2">
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1662,12 +1683,15 @@
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2">
         <v>629</v>
       </c>
     </row>
@@ -1686,16 +1710,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1703,16 +1727,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1720,16 +1744,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1737,16 +1761,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1754,16 +1778,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1771,16 +1795,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1801,19 +1825,19 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1821,22 +1845,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1844,22 +1868,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1867,22 +1891,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
   <si>
     <t>土地坐落</t>
   </si>
@@ -250,6 +250,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -259,6 +262,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -277,7 +286,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-19</t>
+  </si>
+  <si>
+    <t>tmp6ad91</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1482,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
@@ -1519,13 +1534,22 @@
       <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1543,24 +1567,33 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1578,24 +1611,33 @@
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1613,24 +1655,33 @@
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1648,24 +1699,33 @@
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2">
         <v>629</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1683,16 +1743,25 @@
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2">
         <v>629</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1710,16 +1779,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1727,16 +1796,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1744,16 +1813,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1761,16 +1830,16 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1778,16 +1847,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1795,16 +1864,16 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1825,19 +1894,19 @@
         <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1845,22 +1914,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1868,22 +1937,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1891,22 +1960,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,101 +20,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺.）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段五小段00330002地號</t>
+  </si>
+  <si>
+    <t>10000分之606</t>
+  </si>
+  <si>
+    <t>林道春</t>
+  </si>
+  <si>
+    <t>92年08月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-19</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>tmp6ad91</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
+  </si>
+  <si>
+    <t>.權利範圍(持分）</t>
+  </si>
+  <si>
+    <t>所有權人</t>
+  </si>
+  <si>
+    <t>登記（取得）時間</t>
+  </si>
+  <si>
+    <t>登記（取得）原因</t>
+  </si>
+  <si>
+    <t>取得價額</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>變</t>
   </si>
   <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段五小段 0033-0002 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>10000分之 606</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>林道春</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>92年08月 25日</t>
-  </si>
-  <si>
-    <t>權利-範圍 (持分）</t>
-  </si>
-  <si>
-    <t>買賣</t>
+    <t>動</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>.權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段五小段 00928-000 建號(（陽台 24.71 平 方公尺））</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
     <t>變動原因</t>
   </si>
   <si>
@@ -133,16 +166,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>MERCEDES-BEN R350 CDI 4MATIC</t>
-  </si>
-  <si>
-    <t>2，987</t>
-  </si>
-  <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
-    <t>100.年 03 月01曰</t>
+    <t>MERCEDESBENR350CDI4MATIC</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>100.年03月01曰</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -229,12 +259,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -247,27 +271,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>碩聯創投</t>
   </si>
   <si>
@@ -286,15 +289,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-19</t>
-  </si>
-  <si>
-    <t>tmp6ad91</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -322,19 +316,19 @@
     <t>年年春還本终身保險</t>
   </si>
   <si>
-    <t>繳費2 0年终身保障年繳： 3 00 0 0</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳： 5 5 5 4</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳： 5 4 9 1</t>
-  </si>
-  <si>
-    <t>繳費2 0年終身還本月繳： 5 7 6 6</t>
-  </si>
-  <si>
-    <t>繳費2 0年终身還本月繳： 5 6 9 2</t>
+    <t>繳費20年终身保障年繳：30000</t>
+  </si>
+  <si>
+    <t>繳費21年終身保障月繳：5554</t>
+  </si>
+  <si>
+    <t>繳費21年終身保障月繳：5491</t>
+  </si>
+  <si>
+    <t>繳費20年終身還本月繳：5766</t>
+  </si>
+  <si>
+    <t>繳費20年终身還本月繳：5692</t>
   </si>
   <si>
     <t>債務人</t>
@@ -346,7 +340,7 @@
     <t>餘額</t>
   </si>
   <si>
-    <t>取得（發生）時•間</t>
+    <t>取得（發生）時間</t>
   </si>
   <si>
     <t>取得（發生）原因</t>
@@ -358,22 +352,19 @@
     <t>短期放款</t>
   </si>
   <si>
-    <t>合作金庫 臺北市大安區仁愛路</t>
-  </si>
-  <si>
-    <t>合作金庫延吉分行 臺北市大安區仁愛路</t>
-  </si>
-  <si>
-    <t>合作金庫延吉分行 臺北市大安區仁愛路 •</t>
-  </si>
-  <si>
-    <t>92年09月 02日</t>
-  </si>
-  <si>
-    <t>97年12月 17日</t>
-  </si>
-  <si>
-    <t>99年03月 17日</t>
+    <t>合作金庫臺北市大安區仁愛路</t>
+  </si>
+  <si>
+    <t>合作金庫延吉分行臺北市大安區仁愛路</t>
+  </si>
+  <si>
+    <t>92年09月02日</t>
+  </si>
+  <si>
+    <t>97年12月17日</t>
+  </si>
+  <si>
+    <t>99年03月17日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -738,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,57 +757,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -834,49 +841,49 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>230.96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>30000000</v>
@@ -885,56 +892,56 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -952,42 +959,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>3210000</v>
@@ -1008,39 +1015,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1049,19 +1056,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>10259.5</v>
@@ -1072,19 +1079,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1093,19 +1100,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1114,19 +1121,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1135,19 +1142,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1156,19 +1163,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1177,19 +1184,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1198,19 +1205,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1219,19 +1226,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1240,19 +1247,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1261,19 +1268,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1282,19 +1289,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1303,19 +1310,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1324,19 +1331,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1345,19 +1352,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1366,19 +1373,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1387,19 +1394,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1408,19 +1415,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1429,19 +1436,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1450,19 +1457,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1471,19 +1478,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1505,54 +1512,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>50000</v>
@@ -1561,42 +1568,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>30</v>
@@ -1605,42 +1612,42 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>7846</v>
@@ -1649,42 +1656,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>122</v>
@@ -1693,42 +1700,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>6560</v>
@@ -1737,31 +1744,31 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>629</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1779,101 +1786,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1891,91 +1898,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -64,10 +64,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市信義區信義段五小段00330002地號</t>
-  </si>
-  <si>
-    <t>10000分之606</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>林道春</t>
@@ -79,7 +85,151 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>權利範圍(持分）</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>所有權人</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>變動時間</t>
+  </si>
+  <si>
+    <t>變動原因</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>變動時之價額</t>
+  </si>
+  <si>
+    <t>MERCEDESBENR350CDI4MATIC</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>100.年03月01曰</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>潼打銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄仔款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>新竹一信</t>
+  </si>
+  <si>
+    <t>宏遠電訊</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>奇力新電子股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -88,225 +238,18 @@
     <t>2011-12-19</t>
   </si>
   <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
     <t>tmp6ad91</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>.權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>MERCEDESBENR350CDI4MATIC</t>
-  </si>
-  <si>
-    <t>2987</t>
-  </si>
-  <si>
-    <t>100.年03月01曰</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>潼打銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄仔款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>碩聯創投</t>
-  </si>
-  <si>
-    <t>新竹一信</t>
-  </si>
-  <si>
-    <t>宏遠電訊</t>
-  </si>
-  <si>
-    <t>茂矽</t>
-  </si>
-  <si>
-    <t>奇力新電子股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山80終身保險</t>
   </si>
   <si>
+    <t>繳費20年终身保障年繳：30000</t>
+  </si>
+  <si>
     <t>新金美滿還本終身保險</t>
   </si>
   <si>
@@ -316,9 +259,6 @@
     <t>年年春還本终身保險</t>
   </si>
   <si>
-    <t>繳費20年终身保障年繳：30000</t>
-  </si>
-  <si>
     <t>繳費21年終身保障月繳：5554</t>
   </si>
   <si>
@@ -331,43 +271,28 @@
     <t>繳費20年终身還本月繳：5692</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>長期放款</t>
   </si>
   <si>
+    <t>合作金庫臺北市大安區仁愛路</t>
+  </si>
+  <si>
+    <t>92年09月02日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>短期放款</t>
   </si>
   <si>
-    <t>合作金庫臺北市大安區仁愛路</t>
-  </si>
-  <si>
     <t>合作金庫延吉分行臺北市大安區仁愛路</t>
   </si>
   <si>
-    <t>92年09月02日</t>
-  </si>
-  <si>
     <t>97年12月17日</t>
   </si>
   <si>
     <t>99年03月17日</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
   <si>
     <t>週轉金</t>
@@ -729,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,52 +703,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2171</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>629</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,107 +725,80 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>230.96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>30000000</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>230.96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +808,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3210000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,541 +849,462 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>15049</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10259.5</v>
       </c>
       <c r="G2" s="2">
-        <v>3210000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>15049</v>
+        <v>299577.4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10259.5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>299577.4</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>564</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>3102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>183</v>
+        <v>111393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>111393</v>
+        <v>28607</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>28607</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>3330</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>37320</v>
+        <v>824</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>824</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>612</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1673</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1105</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>354</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>16449</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>10152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>118</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>1891</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>533</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
         <v>11209</v>
       </c>
     </row>
@@ -1504,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1553,221 +1364,177 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>3000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2">
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>7846</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
-        <v>3000</v>
+        <v>78460</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2">
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>7846</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
-        <v>78460</v>
+        <v>1220</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2">
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>122</v>
+        <v>6560</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
-        <v>1220</v>
+        <v>65600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2">
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>79</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6560</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="2">
-        <v>65600</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2">
-        <v>629</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1778,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1786,101 +1553,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1898,91 +1648,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="E1" s="1">
+        <v>27940271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
-        <v>27940271</v>
+        <v>9470097</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
-        <v>9470097</v>
+        <v>1579533</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>120</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1579533</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -70,72 +70,48 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市信義區信義段五小段00330002地號</t>
+  </si>
+  <si>
+    <t>10000分之606</t>
+  </si>
+  <si>
+    <t>林道春</t>
+  </si>
+  <si>
+    <t>92年08月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-19</t>
+  </si>
+  <si>
+    <t>柯建銘</t>
+  </si>
+  <si>
+    <t>tmp6ad91</t>
+  </si>
+  <si>
     <t>臺北市信義區信義段五小段00928000建號(（陽台24.71平方公尺））</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>林道春</t>
-  </si>
-  <si>
-    <t>92年08月25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
-  </si>
-  <si>
     <t>MERCEDESBENR350CDI4MATIC</t>
   </si>
   <si>
     <t>2987</t>
   </si>
   <si>
-    <t>柯建銘</t>
-  </si>
-  <si>
     <t>100.年03月01曰</t>
   </si>
   <si>
@@ -217,6 +193,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>碩聯創投</t>
+  </si>
+  <si>
     <t>新竹一信</t>
   </si>
   <si>
@@ -230,15 +209,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-19</t>
-  </si>
-  <si>
-    <t>tmp6ad91</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -654,13 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,6 +678,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2171</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0606</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>131.5626</v>
       </c>
     </row>
   </sheetData>
@@ -717,88 +740,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>230.96</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="2">
         <v>30000000</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>629</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>230.96</v>
       </c>
     </row>
   </sheetData>
@@ -808,29 +856,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1">
+        <v>3210000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
         <v>3210000</v>
       </c>
     </row>
@@ -841,7 +912,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -867,444 +938,465 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10259.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>299577.4</v>
+        <v>15049</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10259.5</v>
+      </c>
       <c r="G3" s="2">
-        <v>564</v>
+        <v>299577.4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>3102</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>61</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>111393</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>28607</v>
+        <v>111393</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>3330</v>
+        <v>28607</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>37320</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>824</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>612</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1673</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1105</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>354</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>16449</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>10152</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>118</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>1891</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>533</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>31</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
         <v>11209</v>
       </c>
     </row>
@@ -1315,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1329,13 +1421,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1364,178 +1456,222 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>3000</v>
+        <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>629</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>7846</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>78460</v>
+        <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>629</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>72</v>
-      </c>
-      <c r="N3" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>122</v>
+        <v>7846</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>1220</v>
+        <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>629</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>6560</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>65600</v>
+        <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>629</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>79</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6560</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>65600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>629</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1553,84 +1689,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,68 +1801,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>27940271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>9470097</v>
+        <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
+        <v>9470097</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2">
         <v>1579533</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>86</v>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -106,10 +106,10 @@
     <t>全部</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>MERCEDESBENR350CDI4MATIC</t>
-  </si>
-  <si>
-    <t>2987</t>
   </si>
   <si>
     <t>100.年03月01曰</t>
@@ -856,41 +856,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3210000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2987</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -903,6 +924,27 @@
       </c>
       <c r="G2" s="2">
         <v>3210000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>629</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -106,6 +106,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t>貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -822,7 +828,7 @@
         <v>30000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -908,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>2987</v>
@@ -917,16 +923,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>3210000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -962,13 +968,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -983,13 +989,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1004,13 +1010,13 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1027,13 +1033,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1048,13 +1054,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1069,13 +1075,13 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1090,13 +1096,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1111,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1132,13 +1138,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1153,13 +1159,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1174,13 +1180,13 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1195,13 +1201,13 @@
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1216,13 +1222,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -1237,13 +1243,13 @@
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1258,13 +1264,13 @@
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1279,13 +1285,13 @@
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1300,13 +1306,13 @@
         <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -1321,13 +1327,13 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
@@ -1342,13 +1348,13 @@
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
@@ -1363,13 +1369,13 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
@@ -1384,13 +1390,13 @@
         <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -1405,13 +1411,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -1426,13 +1432,13 @@
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -1463,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1501,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1513,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1545,7 +1551,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1557,13 +1563,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1589,7 +1595,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1601,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1633,7 +1639,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1645,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1677,7 +1683,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1689,13 +1695,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1731,16 +1737,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1748,16 +1754,16 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1765,16 +1771,16 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1782,16 +1788,16 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1799,16 +1805,16 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1816,16 +1822,16 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1843,22 +1849,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>27940271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1866,22 +1872,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1889,22 +1895,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1912,22 +1918,22 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -124,79 +124,88 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>潼打銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期儲蓄仔款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>潼打銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄仔款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>碩聯創投</t>
@@ -960,13 +969,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
@@ -977,475 +986,933 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>15049</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>15049</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>629</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>10259.5</v>
-      </c>
-      <c r="G3" s="2">
         <v>299577.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>629</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>564</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>629</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>3102</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>629</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>629</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>629</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>111393</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>629</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>28607</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>629</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>3330</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>629</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>37320</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>629</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>824</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>629</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>612</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>629</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>1673</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>629</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>1105</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>629</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>629</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>16449</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>629</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>10152</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>629</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>629</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>1891</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>629</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2">
+        <v>629</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2">
+        <v>629</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>11209</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2">
+        <v>629</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1469,13 +1936,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1507,7 +1974,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1519,13 +1986,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1551,7 +2018,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1563,13 +2030,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>3000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1595,7 +2062,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1607,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>78460</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1639,7 +2106,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1651,13 +2118,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>1220</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1683,7 +2150,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1695,13 +2162,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>65600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1737,16 +2204,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1754,16 +2221,16 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1771,16 +2238,16 @@
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1788,16 +2255,16 @@
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1805,16 +2272,16 @@
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1822,16 +2289,16 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1849,22 +2316,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>27940271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1872,22 +2339,22 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1895,22 +2362,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1918,22 +2385,22 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
+++ b/legislator/property/output/normal/柯建銘_2011-12-19_財產申報表_tmp6ad91.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -226,15 +226,15 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山80終身保險</t>
   </si>
   <si>
-    <t>繳費20年终身保障年繳：30000</t>
-  </si>
-  <si>
     <t>新金美滿還本終身保險</t>
   </si>
   <si>
@@ -244,43 +244,43 @@
     <t>年年春還本终身保險</t>
   </si>
   <si>
-    <t>繳費21年終身保障月繳：5554</t>
-  </si>
-  <si>
-    <t>繳費21年終身保障月繳：5491</t>
-  </si>
-  <si>
-    <t>繳費20年終身還本月繳：5766</t>
-  </si>
-  <si>
-    <t>繳費20年终身還本月繳：5692</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>長期放款</t>
   </si>
   <si>
+    <t>短期放款</t>
+  </si>
+  <si>
     <t>合作金庫臺北市大安區仁愛路</t>
   </si>
   <si>
+    <t>合作金庫延吉分行臺北市大安區仁愛路</t>
+  </si>
+  <si>
     <t>92年09月02日</t>
   </si>
   <si>
+    <t>97年12月17日</t>
+  </si>
+  <si>
+    <t>99年03月17日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>短期放款</t>
-  </si>
-  <si>
-    <t>合作金庫延吉分行臺北市大安區仁愛路</t>
-  </si>
-  <si>
-    <t>97年12月17日</t>
-  </si>
-  <si>
-    <t>99年03月17日</t>
-  </si>
-  <si>
     <t>週轉金</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2196,49 +2196,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>629</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -2249,13 +2285,31 @@
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>629</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
@@ -2264,15 +2318,33 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>629</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>72</v>
@@ -2281,15 +2353,33 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>629</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>73</v>
@@ -2298,7 +2388,25 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>629</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2308,38 +2416,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>27940271</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2351,56 +2480,119 @@
         <v>27940271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>629</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>9470097</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>629</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>1579533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>629</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
